--- a/dataset_sheet.xlsx
+++ b/dataset_sheet.xlsx
@@ -7,7 +7,7 @@
     <sheet state="visible" name="Copy of Sheet1" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$45</definedName>
+    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">Sheet1!$A$1:$F$63</definedName>
     <definedName hidden="1" localSheetId="1" name="_xlnm._FilterDatabase">'Copy of Sheet1'!$A$1:$G$45</definedName>
   </definedNames>
   <calcPr/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="218">
   <si>
     <t>image</t>
   </si>
@@ -643,6 +643,221 @@
   </si>
   <si>
     <t>This is a V-neck slip dress with adjustable straps and a bias cut that follows the curves of the body. It's made from lightweight Japanese satin.</t>
+  </si>
+  <si>
+    <t>https://www.champion.com/collections/all-women/products/champion-powerblend-hoodie-relaxed-full-embroidered-script-logo-clever-sage</t>
+  </si>
+  <si>
+    <t>Champion</t>
+  </si>
+  <si>
+    <t>Powerblend Hoodie, Relaxed, Full Embroidered Script Logo</t>
+  </si>
+  <si>
+    <t>THAT CLASSIC POWERBLEND COMBO
+With its comfy, loose fit, this Powerblend® Hoodie for women takes you from warm-ups to weekends in laid-back style. This soft cotton blend pullover hoodie has a brushed interior that keeps you warm without the weight. Durable fleece fabrication that resists pilling and shrinkage makes this sweatshirt an instant lifer. The dropped shoulders and loose fit pair perfectly with your best Champion shorts and leggings, while the pass-through kanga pocket makes storing the essentials easy. The double-lined hood adds warmth and makes this sweatshirt a great layering piece. The look is made complete by the full classic script logo spanning the chest and the C logo at the wrist, so everyone knows what you're all about.
+Model is 5'11" and wearing a size medium</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/short-swing-dress-p03067210.html?v1=424968217</t>
+  </si>
+  <si>
+    <t>Zara</t>
+  </si>
+  <si>
+    <t>Short Swing Dress</t>
+  </si>
+  <si>
+    <t>Sleeveless mini dress with round neckline. Swing skirt. Invisible back zip closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/draped-midi-dress-p04772305.html?v1=412389858</t>
+  </si>
+  <si>
+    <t>Draped Midi Dress</t>
+  </si>
+  <si>
+    <t>Midi dress made of knit fabric. Sleeveless design with high collar. Draped fabric. Matching interior lining. Back slit detail and hidden in-seam zip closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/denim-effect-ruffle-mini-dress-p06929084.html?v1=433213705</t>
+  </si>
+  <si>
+    <t>Denim Effect Ruffle Mini Dress</t>
+  </si>
+  <si>
+    <t>Sleeveless mini dress with round neckline. Flounced hem. Pronounced seam detail. Low-cut back and metal zip closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/trf-denim-midi-dress-p06929093.html?v1=413381047</t>
+  </si>
+  <si>
+    <t>TRF Denim Midi Dress</t>
+  </si>
+  <si>
+    <t>Midi dress with a straight neckline and off-the-shoulder design. Pleated detail. Back zipper closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/striped-poplin-shirt-with-contrasting-buttons-p02238832.html?v1=421572833</t>
+  </si>
+  <si>
+    <t>STRIPED POPLIN SHIRT WITH CONTRASTING BUTTONS</t>
+  </si>
+  <si>
+    <t>Collared, long-sleeved shirt. Front closure with buttons hidden by a placket and contrasting gold buttons.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/trf-high-rise-wide-leg-jeans-p02569020.html?v1=410575233&amp;v2=2419185</t>
+  </si>
+  <si>
+    <t>TRF HIGH RISE WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>High-waisted five pocket jeans in rigid fabric. Belt loops. Long wide leg. Zip and metal button closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/high-waisted-trf-mom-fit-jeans-p02569047.html?v1=438793814&amp;v2=2419185</t>
+  </si>
+  <si>
+    <t>HIGH-WAISTED TRF MOM FIT JEANS</t>
+  </si>
+  <si>
+    <t>Pants with a high waist, belt loops, and five pockets. Front zip and metal button closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/z1975-high-rise-wide-leg-jeans-p08228027.html?v1=419332902&amp;v2=2419185</t>
+  </si>
+  <si>
+    <t>Z1975 HIGH RISE WIDE LEG JEANS</t>
+  </si>
+  <si>
+    <t>High-waisted jeans with five pockets. Washed effect. Wide leg. Front zip and button closure.</t>
+  </si>
+  <si>
+    <t>https://www.hollisterco.com/shop/us/p/hollister-feel-good-fleece-oversized-cozy-hoodie-58360319?categoryId=12631&amp;faceout=model&amp;seq=49</t>
+  </si>
+  <si>
+    <t>Hollister</t>
+  </si>
+  <si>
+    <t>Oversized Hoodie</t>
+  </si>
+  <si>
+    <t>A super soft and cozy fleece hoodie with a front pouch pocket. Hood, long sleeves. Oversized Fit.</t>
+  </si>
+  <si>
+    <t>https://www.hollisterco.com/shop/us/p/denim-jacket-59033358?categoryId=12619&amp;faceout=model&amp;seq=02</t>
+  </si>
+  <si>
+    <t>Denim Jacket</t>
+  </si>
+  <si>
+    <t>A classic denim jacket with a button closure, button-down chest pockets and front pockets. Collar, vintage-inspired seaming.</t>
+  </si>
+  <si>
+    <t>https://www.hollisterco.com/shop/us/p/low-rise-dark-wash-baggy-jort-59116319?faceout=model&amp;seq=01</t>
+  </si>
+  <si>
+    <t>Low-Rise Dark Rinse Wash Baggy Jort</t>
+  </si>
+  <si>
+    <t>Cute and comfy denim shorts designed with a low-rise waist and baggy fit. Dark rinse wash with subtle fading.</t>
+  </si>
+  <si>
+    <t>https://www2.hm.com/en_us/productpage.1245409001.html</t>
+  </si>
+  <si>
+    <t>H&amp;M</t>
+  </si>
+  <si>
+    <t>Canvas Cargo Pants</t>
+  </si>
+  <si>
+    <t>Pants in cotton canvas. Low waist, covered elastic at back of waistband, and zip fly with snap fastener. Diagonal side pockets and bellows leg pockets with flap. Wide legs.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/halter-godet-dress-zw-collection-p02184187.html?v1=438380682</t>
+  </si>
+  <si>
+    <t>HALTER GODET DRESS ZW COLLECTION</t>
+  </si>
+  <si>
+    <t>Short halter neck dress with open shoulders. Godet hem. Concealed back zip closure.</t>
+  </si>
+  <si>
+    <t>https://www.zara.com/us/en/short-sleeve-mini-dress-p02121023.html?v1=425173629</t>
+  </si>
+  <si>
+    <t>SHORT SLEEVE MINI DRESS</t>
+  </si>
+  <si>
+    <t>Round neck, short sleeve dress. Topstitched detail. A-line hem. Side closure with hidden in-seam zipper and back opening with button.</t>
+  </si>
+  <si>
+    <t>https://usa.tommy.com/en/women/clothing/tops/embroidered-flag-stripe-logo-t-shirt/76J4893-YCI.html?journey=Tier_18482839</t>
+  </si>
+  <si>
+    <t>Tommy Hilfiger</t>
+  </si>
+  <si>
+    <t>Embroidered Flag Stripe Logo T-Shirt</t>
+  </si>
+  <si>
+    <t>About
+Tommy Hilfiger women's T-shirt. Made from pure cotton and embroidered with our flag stripe logo, our tee is a soft, comfortable layer.
+Details
+This product contains regenerative cotton which is grown using farming methods that seek to improve soil health, watersheds and biodiversity.
+Body length from high point of shoulder: 25-1/2".
+Measurements based on a size S.
+Fit
+Regular Fit.
+Composition
+100% regenerative cotton.
+Care
+Machine washable.
+Origin
+Imported.</t>
+  </si>
+  <si>
+    <t>https://usa.tommy.com/en/women/clothing/tops/slim-fit-zip-polo/76J1536-FAP.html?journey=Tier_18482839</t>
+  </si>
+  <si>
+    <t>Slim Fit Zip Polo</t>
+  </si>
+  <si>
+    <t>About
+Tommy Hilfiger women's polo. Designed in a trim fit from premium cotton, this short-sleeve polo has an elevated feel thanks to the gold-tone zip placket.
+Details
+Zip placket, short sleeves.
+This product contains regenerative cotton which is grown using farming methods that seek to improve soil health, watersheds and biodiversity.
+Body length from high point of shoulder: 25-1/4".
+Measurements based on a size S.
+Fit
+Slim Fit.
+Composition
+100% regenerative cotton.
+Care
+Machine washable.
+Origin
+Imported.
+Style
+76J1536-FAP</t>
+  </si>
+  <si>
+    <t>https://www.forever21.com/us/2001262416.html</t>
+  </si>
+  <si>
+    <t>Hooded Varsity Letterman Jacket</t>
+  </si>
+  <si>
+    <t>Details
+A fleece varsity letterman jacket featuring a drawstring hood, varsity-striped trim, chest "LA" or "NY" patch, snap button-front closures, slanted front pockets, dropped long sleeves, back "Los Angeles" and "California" or "New York" patches, and a cropped hem.
+Content + Care
+- 100% polyester
+- Machine wash cold
+Size + Fit
+- Model is 5'6.5" and wearing a Small
+Product Code: 2001262416</t>
   </si>
   <si>
     <t>Matt</t>
@@ -802,7 +1017,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="13">
     <border/>
     <border>
       <left style="thin">
@@ -953,20 +1168,6 @@
       </right>
       <top style="thin">
         <color rgb="FFF8F9FA"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF284E3F"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFFFFFFF"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFFFFFFF"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFFFFFFF"/>
       </top>
       <bottom style="thin">
         <color rgb="FF284E3F"/>
@@ -1138,13 +1339,13 @@
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="12" fillId="2" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="11" fillId="2" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="11" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
-    <xf borderId="13" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="12" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="center" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
@@ -1229,8 +1430,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F45" displayName="Table1" name="Table1" id="1">
-  <autoFilter ref="$A$1:$F$45"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" ref="A1:F63" displayName="Table1" name="Table1" id="1">
+  <autoFilter ref="$A$1:$F$63"/>
   <tableColumns count="6">
     <tableColumn name="image" id="1"/>
     <tableColumn name="brand" id="2"/>
@@ -2353,114 +2554,384 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="44" t="s">
         <v>151</v>
       </c>
-      <c r="B45" s="48" t="s">
+      <c r="B45" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="C45" s="49" t="s">
+      <c r="C45" s="45" t="s">
         <v>152</v>
       </c>
-      <c r="D45" s="48" t="s">
+      <c r="D45" s="20" t="s">
         <v>153</v>
       </c>
-      <c r="E45" s="50">
+      <c r="E45" s="22">
         <v>34.99</v>
       </c>
-      <c r="F45" s="51" t="s">
+      <c r="F45" s="23" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="46">
-      <c r="B46" s="52"/>
-      <c r="C46" s="52"/>
-      <c r="D46" s="52"/>
+      <c r="A46" s="31" t="s">
+        <v>154</v>
+      </c>
+      <c r="B46" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="E46" s="27">
+        <v>41.25</v>
+      </c>
+      <c r="F46" s="28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="47">
-      <c r="B47" s="52"/>
-      <c r="C47" s="52"/>
-      <c r="D47" s="52"/>
+      <c r="A47" s="44" t="s">
+        <v>158</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="E47" s="22">
+        <v>59.9</v>
+      </c>
+      <c r="F47" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="48">
-      <c r="B48" s="52"/>
-      <c r="C48" s="52"/>
-      <c r="D48" s="52"/>
+      <c r="A48" s="31" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C48" s="32" t="s">
+        <v>163</v>
+      </c>
+      <c r="D48" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="E48" s="27">
+        <v>49.9</v>
+      </c>
+      <c r="F48" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="49">
-      <c r="B49" s="52"/>
-      <c r="C49" s="52"/>
-      <c r="D49" s="52"/>
+      <c r="A49" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="B49" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C49" s="36" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="20" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="22">
+        <v>49.9</v>
+      </c>
+      <c r="F49" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="50">
-      <c r="B50" s="52"/>
-      <c r="C50" s="52"/>
-      <c r="D50" s="52"/>
+      <c r="A50" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="B50" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="D50" s="25" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="27">
+        <v>69.9</v>
+      </c>
+      <c r="F50" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="51">
-      <c r="B51" s="52"/>
-      <c r="C51" s="52"/>
-      <c r="D51" s="52"/>
+      <c r="A51" s="44" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C51" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="E51" s="22">
+        <v>45.9</v>
+      </c>
+      <c r="F51" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="52">
-      <c r="B52" s="52"/>
-      <c r="C52" s="52"/>
-      <c r="D52" s="52"/>
+      <c r="A52" s="31" t="s">
+        <v>174</v>
+      </c>
+      <c r="B52" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C52" s="32" t="s">
+        <v>175</v>
+      </c>
+      <c r="D52" s="25" t="s">
+        <v>176</v>
+      </c>
+      <c r="E52" s="27">
+        <v>49.9</v>
+      </c>
+      <c r="F52" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="53">
-      <c r="B53" s="52"/>
-      <c r="C53" s="52"/>
-      <c r="D53" s="52"/>
+      <c r="A53" s="44" t="s">
+        <v>177</v>
+      </c>
+      <c r="B53" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C53" s="36" t="s">
+        <v>178</v>
+      </c>
+      <c r="D53" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="E53" s="22">
+        <v>45.9</v>
+      </c>
+      <c r="F53" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="54">
-      <c r="B54" s="52"/>
-      <c r="C54" s="52"/>
-      <c r="D54" s="52"/>
+      <c r="A54" s="31" t="s">
+        <v>180</v>
+      </c>
+      <c r="B54" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C54" s="32" t="s">
+        <v>181</v>
+      </c>
+      <c r="D54" s="25" t="s">
+        <v>182</v>
+      </c>
+      <c r="E54" s="27">
+        <v>49.9</v>
+      </c>
+      <c r="F54" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="55">
-      <c r="B55" s="52"/>
-      <c r="C55" s="52"/>
-      <c r="D55" s="52"/>
+      <c r="A55" s="44" t="s">
+        <v>183</v>
+      </c>
+      <c r="B55" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C55" s="36" t="s">
+        <v>185</v>
+      </c>
+      <c r="D55" s="20" t="s">
+        <v>186</v>
+      </c>
+      <c r="E55" s="22">
+        <v>39.95</v>
+      </c>
+      <c r="F55" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="56">
-      <c r="B56" s="52"/>
-      <c r="C56" s="52"/>
-      <c r="D56" s="52"/>
+      <c r="A56" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="B56" s="25" t="s">
+        <v>184</v>
+      </c>
+      <c r="C56" s="32" t="s">
+        <v>188</v>
+      </c>
+      <c r="D56" s="25" t="s">
+        <v>189</v>
+      </c>
+      <c r="E56" s="27">
+        <v>54.95</v>
+      </c>
+      <c r="F56" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="57">
-      <c r="B57" s="52"/>
-      <c r="C57" s="52"/>
-      <c r="D57" s="52"/>
+      <c r="A57" s="44" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="C57" s="36" t="s">
+        <v>191</v>
+      </c>
+      <c r="D57" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="E57" s="22">
+        <v>39.95</v>
+      </c>
+      <c r="F57" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="58">
-      <c r="B58" s="52"/>
-      <c r="C58" s="52"/>
-      <c r="D58" s="52"/>
+      <c r="A58" s="31" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="25" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="32" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="25" t="s">
+        <v>196</v>
+      </c>
+      <c r="E58" s="27">
+        <v>24.99</v>
+      </c>
+      <c r="F58" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="59">
-      <c r="B59" s="52"/>
-      <c r="C59" s="52"/>
-      <c r="D59" s="52"/>
+      <c r="A59" s="44" t="s">
+        <v>197</v>
+      </c>
+      <c r="B59" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="C59" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="20" t="s">
+        <v>199</v>
+      </c>
+      <c r="E59" s="22">
+        <v>35.99</v>
+      </c>
+      <c r="F59" s="23" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="60">
-      <c r="B60" s="52"/>
-      <c r="C60" s="52"/>
-      <c r="D60" s="52"/>
+      <c r="A60" s="31" t="s">
+        <v>200</v>
+      </c>
+      <c r="B60" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="C60" s="32" t="s">
+        <v>201</v>
+      </c>
+      <c r="D60" s="25" t="s">
+        <v>202</v>
+      </c>
+      <c r="E60" s="27">
+        <v>49.9</v>
+      </c>
+      <c r="F60" s="28" t="s">
+        <v>69</v>
+      </c>
     </row>
     <row r="61">
-      <c r="B61" s="52"/>
-      <c r="C61" s="52"/>
-      <c r="D61" s="52"/>
+      <c r="A61" s="44" t="s">
+        <v>203</v>
+      </c>
+      <c r="B61" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C61" s="36" t="s">
+        <v>205</v>
+      </c>
+      <c r="D61" s="20" t="s">
+        <v>206</v>
+      </c>
+      <c r="E61" s="22">
+        <v>26.7</v>
+      </c>
+      <c r="F61" s="23" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="62">
-      <c r="B62" s="52"/>
-      <c r="C62" s="52"/>
-      <c r="D62" s="52"/>
+      <c r="A62" s="31" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C62" s="32" t="s">
+        <v>208</v>
+      </c>
+      <c r="D62" s="25" t="s">
+        <v>209</v>
+      </c>
+      <c r="E62" s="27">
+        <v>38.7</v>
+      </c>
+      <c r="F62" s="28" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="63">
-      <c r="B63" s="52"/>
-      <c r="C63" s="52"/>
-      <c r="D63" s="52"/>
+      <c r="A63" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="B63" s="48" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="49" t="s">
+        <v>211</v>
+      </c>
+      <c r="D63" s="48" t="s">
+        <v>212</v>
+      </c>
+      <c r="E63" s="50">
+        <v>20.99</v>
+      </c>
+      <c r="F63" s="51" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="64">
       <c r="B64" s="52"/>
@@ -7154,10 +7625,10 @@
     </row>
   </sheetData>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" sqref="F2:F45">
+    <dataValidation type="list" allowBlank="1" sqref="F2:F63">
       <formula1>"vivian,megan,matt,Laura"</formula1>
     </dataValidation>
-    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E45">
+    <dataValidation type="custom" allowBlank="1" showDropDown="1" sqref="E2:E63">
       <formula1>AND(ISNUMBER(E2),(NOT(OR(NOT(ISERROR(DATEVALUE(E2))), AND(ISNUMBER(E2), LEFT(CELL("format", E2))="D")))))</formula1>
     </dataValidation>
   </dataValidations>
@@ -7206,10 +7677,28 @@
     <hyperlink r:id="rId42" ref="A43"/>
     <hyperlink r:id="rId43" ref="A44"/>
     <hyperlink r:id="rId44" ref="A45"/>
+    <hyperlink r:id="rId45" ref="A46"/>
+    <hyperlink r:id="rId46" ref="A47"/>
+    <hyperlink r:id="rId47" ref="A48"/>
+    <hyperlink r:id="rId48" ref="A49"/>
+    <hyperlink r:id="rId49" ref="A50"/>
+    <hyperlink r:id="rId50" ref="A51"/>
+    <hyperlink r:id="rId51" ref="A52"/>
+    <hyperlink r:id="rId52" ref="A53"/>
+    <hyperlink r:id="rId53" ref="A54"/>
+    <hyperlink r:id="rId54" ref="A55"/>
+    <hyperlink r:id="rId55" ref="A56"/>
+    <hyperlink r:id="rId56" ref="A57"/>
+    <hyperlink r:id="rId57" ref="A58"/>
+    <hyperlink r:id="rId58" ref="A59"/>
+    <hyperlink r:id="rId59" ref="A60"/>
+    <hyperlink r:id="rId60" ref="A61"/>
+    <hyperlink r:id="rId61" ref="A62"/>
+    <hyperlink r:id="rId62" ref="A63"/>
   </hyperlinks>
-  <drawing r:id="rId45"/>
+  <drawing r:id="rId63"/>
   <tableParts count="1">
-    <tablePart r:id="rId47"/>
+    <tablePart r:id="rId65"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7238,19 +7727,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>154</v>
+        <v>213</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>69</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>155</v>
+        <v>214</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>156</v>
+        <v>215</v>
       </c>
       <c r="F1" s="53" t="s">
-        <v>157</v>
+        <v>216</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>5</v>
@@ -7317,7 +7806,7 @@
     </row>
     <row r="5">
       <c r="A5" s="13" t="s">
-        <v>158</v>
+        <v>217</v>
       </c>
       <c r="B5" s="10"/>
       <c r="D5" s="10"/>
